--- a/assets_src/cogs_data.xlsx
+++ b/assets_src/cogs_data.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="passo_referencia">Plan1!$G$14</definedName>
+    <definedName name="passo_referencia">Plan1!$K$14</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -92,7 +92,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Raio primitivo</t>
+Raio interno</t>
         </r>
       </text>
     </comment>
@@ -116,7 +116,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Diâmetro primitivo</t>
+Raio que marca o início da curvatura do pé do dente.</t>
         </r>
       </text>
     </comment>
@@ -140,7 +140,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Módulo</t>
+Raio base</t>
         </r>
       </text>
     </comment>
@@ -164,7 +164,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Passo da roda denteada</t>
+Raio primitivo</t>
         </r>
       </text>
     </comment>
@@ -188,7 +188,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Espessura do dente</t>
+Raio externo</t>
         </r>
       </text>
     </comment>
@@ -200,7 +200,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>irpagnossin:</t>
         </r>
@@ -209,10 +209,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Raio de curvatura da porção do dente que liga a circunferência primitiva à circunferência externa.</t>
+Diâmetro primitivo</t>
         </r>
       </text>
     </comment>
@@ -224,7 +224,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>irpagnossin:</t>
         </r>
@@ -233,10 +233,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Raio de curvatura da porção do dente que liga a circunferência base à circunferência primitiva.</t>
+Módulo</t>
         </r>
       </text>
     </comment>
@@ -248,7 +248,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>irpagnossin:</t>
         </r>
@@ -257,10 +257,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Raio de curvatura do pé do dente</t>
+Passo da roda denteada</t>
         </r>
       </text>
     </comment>
@@ -284,7 +284,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Amplitude angular associada ao passo.</t>
+Espessura do dente</t>
         </r>
       </text>
     </comment>
@@ -308,7 +308,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Ângulo inicial do passo (dente mais cavado). Este valor é útil para mim apenas, conforme a estratégia que adotei para desenhar as rodas.</t>
+Amplitude angular associada ao dente: ao invés de eu ter de medir a espessura do dente sobre a circunferência primitiva, basta marcar este ângulo.</t>
         </r>
       </text>
     </comment>
@@ -332,7 +332,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Ângulo final do passo (dente mais cavado). Este valor é útil para mim apenas, conforme a estratégia que adotei para desenhar as rodas.</t>
+No esquema que estou usando para desenhar, este é o ângulo que preciso rotacionar uma reta, partindo do centro das circunferências, para marcar a amplitude angular de ocupação do dente.</t>
         </r>
       </text>
     </comment>
@@ -344,7 +344,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>irpagnossin:</t>
         </r>
@@ -353,10 +353,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Raio interno</t>
+Raio de curvatura da porção do dente que liga a circunferência primitiva à circunferência externa.</t>
         </r>
       </text>
     </comment>
@@ -368,7 +368,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>irpagnossin:</t>
         </r>
@@ -377,10 +377,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Raio externo</t>
+Raio de curvatura da porção do dente que liga a circunferência base à circunferência primitiva.</t>
         </r>
       </text>
     </comment>
@@ -392,7 +392,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>irpagnossin:</t>
         </r>
@@ -401,14 +401,86 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Raio que marca o início da curvatura do pé do dente.</t>
+Raio de curvatura do pé do dente</t>
         </r>
       </text>
     </comment>
-    <comment ref="G14" authorId="0">
+    <comment ref="R2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>irpagnossin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Amplitude angular associada ao passo.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>irpagnossin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ângulo inicial do passo (dente mais cavado). Este valor é útil para mim apenas, conforme a estratégia que adotei para desenhar as rodas.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>irpagnossin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ângulo final do passo (dente mais cavado). Este valor é útil para mim apenas, conforme a estratégia que adotei para desenhar as rodas.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -437,7 +509,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>f'</t>
   </si>
@@ -534,11 +606,68 @@
   <si>
     <t>R3</t>
   </si>
+  <si>
+    <t>Rb</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>DQ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">90 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>DQ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="11">
     <font>
       <sz val="11"/>
@@ -618,7 +747,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -634,6 +763,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,16 +800,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -684,12 +816,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -708,6 +834,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1004,1917 +1154,2269 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="9.140625" style="2"/>
-    <col min="12" max="14" width="9.140625" style="5"/>
+    <col min="2" max="3" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="4"/>
+    <col min="7" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="9.140625" style="4"/>
+    <col min="9" max="12" width="9.140625" style="2"/>
+    <col min="13" max="13" width="9.140625" style="4"/>
+    <col min="14" max="14" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.140625" style="2"/>
+    <col min="18" max="20" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:23">
+      <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:23">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="H2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="M2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="P2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="Q2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="R2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="S2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="T2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="2">
+    <row r="3" spans="1:23">
+      <c r="A3" s="20">
         <v>8</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="12">
         <v>2.1</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="12">
         <v>0.45</v>
       </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D13" si="0">A3*passo_referencia/(2*PI())</f>
+      <c r="D3" s="16">
+        <f>G3-20</f>
+        <v>168</v>
+      </c>
+      <c r="E3" s="16">
+        <f>D3+Q3</f>
+        <v>175.83333333333334</v>
+      </c>
+      <c r="F3" s="15">
+        <f>G3*COS(15*PI()/180)</f>
+        <v>181.59405534234483</v>
+      </c>
+      <c r="G3" s="18">
+        <f t="shared" ref="G3:G13" si="0">A3*passo_referencia/(2*PI())</f>
         <v>188</v>
       </c>
-      <c r="E3" s="11">
-        <f t="shared" ref="E3:E13" si="1">2*D3</f>
+      <c r="H3" s="16">
+        <f>G3+20</f>
+        <v>208</v>
+      </c>
+      <c r="I3" s="8">
+        <f t="shared" ref="I3:I13" si="1">2*G3</f>
         <v>376</v>
       </c>
-      <c r="F3" s="11">
-        <f t="shared" ref="F3:F13" si="2">E3/A3</f>
+      <c r="J3" s="8">
+        <f t="shared" ref="J3:J13" si="2">I3/A3</f>
         <v>47</v>
       </c>
-      <c r="G3" s="12">
-        <f t="shared" ref="G3:G13" si="3">PI()*F3</f>
+      <c r="K3" s="9">
+        <f t="shared" ref="K3:K13" si="3">PI()*J3</f>
         <v>147.65485471872029</v>
       </c>
-      <c r="H3" s="10">
-        <f t="shared" ref="H3:H13" si="4">G3/2</f>
+      <c r="L3" s="9">
+        <f t="shared" ref="L3:L13" si="4">K3/2</f>
         <v>73.827427359360144</v>
       </c>
-      <c r="I3" s="4">
-        <f t="shared" ref="I3:I13" si="5">B3*F3</f>
+      <c r="M3" s="9">
+        <f>L3/G3*180/PI()</f>
+        <v>22.500000000000004</v>
+      </c>
+      <c r="N3" s="7">
+        <f>90-M3</f>
+        <v>67.5</v>
+      </c>
+      <c r="O3" s="17">
+        <f>B3*J3</f>
         <v>98.7</v>
       </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J13" si="6">C3*F3</f>
+      <c r="P3" s="17">
+        <f>C3*J3</f>
         <v>21.150000000000002</v>
       </c>
-      <c r="K3" s="6">
-        <f>F3/6</f>
+      <c r="Q3" s="11">
+        <f>J3/6</f>
         <v>7.833333333333333</v>
       </c>
-      <c r="L3" s="14">
-        <f>G3/D3*180/PI()</f>
+      <c r="R3" s="11">
+        <f>K3/G3*180/PI()</f>
         <v>45.000000000000007</v>
       </c>
-      <c r="M3" s="6">
-        <f>90-15-(L3-15)/2</f>
-        <v>60</v>
-      </c>
-      <c r="N3" s="6">
-        <f>90+(L3-15)/2</f>
-        <v>105</v>
-      </c>
-      <c r="O3" s="6">
-        <f>D3-20</f>
-        <v>168</v>
-      </c>
-      <c r="P3" s="6">
-        <f>D3+20</f>
-        <v>208</v>
-      </c>
-      <c r="Q3" s="6">
-        <f>O3+K3</f>
-        <v>175.83333333333334</v>
+      <c r="S3" s="5">
+        <f>90-M3-(R3-M3)/2</f>
+        <v>56.25</v>
+      </c>
+      <c r="T3" s="5">
+        <f>90+(R3-M3)/2</f>
+        <v>101.25</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="2">
+    <row r="4" spans="1:23">
+      <c r="A4" s="20">
         <v>10</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="12">
         <v>2.2799999999999998</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="12">
         <v>0.69</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="16">
+        <f>G4-20</f>
+        <v>215.00000000000003</v>
+      </c>
+      <c r="E4" s="16">
+        <f>D4+Q4</f>
+        <v>222.83333333333337</v>
+      </c>
+      <c r="F4" s="15">
+        <f>G4*COS(15*PI()/180)</f>
+        <v>226.99256917793107</v>
+      </c>
+      <c r="G4" s="18">
         <f t="shared" si="0"/>
         <v>235.00000000000003</v>
       </c>
-      <c r="E4" s="11">
+      <c r="H4" s="16">
+        <f>G4+20</f>
+        <v>255.00000000000003</v>
+      </c>
+      <c r="I4" s="8">
         <f t="shared" si="1"/>
         <v>470.00000000000006</v>
       </c>
-      <c r="F4" s="11">
+      <c r="J4" s="8">
         <f t="shared" si="2"/>
         <v>47.000000000000007</v>
       </c>
-      <c r="G4" s="12">
+      <c r="K4" s="9">
         <f t="shared" si="3"/>
         <v>147.65485471872029</v>
       </c>
-      <c r="H4" s="10">
+      <c r="L4" s="9">
         <f t="shared" si="4"/>
         <v>73.827427359360144</v>
       </c>
-      <c r="I4" s="4">
-        <f t="shared" si="5"/>
+      <c r="M4" s="9">
+        <f t="shared" ref="M4:M29" si="5">L4/G4*180/PI()</f>
+        <v>18</v>
+      </c>
+      <c r="N4" s="7">
+        <f t="shared" ref="N4:N29" si="6">90-M4</f>
+        <v>72</v>
+      </c>
+      <c r="O4" s="17">
+        <f>B4*J4</f>
         <v>107.16000000000001</v>
       </c>
-      <c r="J4" s="4">
-        <f t="shared" si="6"/>
+      <c r="P4" s="17">
+        <f>C4*J4</f>
         <v>32.43</v>
       </c>
-      <c r="K4" s="6">
-        <f t="shared" ref="K4:K29" si="7">F4/6</f>
+      <c r="Q4" s="11">
+        <f t="shared" ref="Q4:Q29" si="7">J4/6</f>
         <v>7.8333333333333348</v>
       </c>
-      <c r="L4" s="14">
-        <f t="shared" ref="L4:L29" si="8">G4/D4*180/PI()</f>
+      <c r="R4" s="11">
+        <f>K4/G4*180/PI()</f>
         <v>36</v>
       </c>
-      <c r="M4" s="6">
-        <f t="shared" ref="M4:M29" si="9">90-15-(L4-15)/2</f>
-        <v>64.5</v>
-      </c>
-      <c r="N4" s="6">
-        <f t="shared" ref="N4:N29" si="10">90+(L4-15)/2</f>
-        <v>100.5</v>
-      </c>
-      <c r="O4" s="6">
-        <f t="shared" ref="O4:O29" si="11">D4-20</f>
-        <v>215.00000000000003</v>
-      </c>
-      <c r="P4" s="6">
-        <f t="shared" ref="P4:P29" si="12">D4+20</f>
-        <v>255.00000000000003</v>
-      </c>
-      <c r="Q4" s="6">
-        <f t="shared" ref="Q4:Q29" si="13">O4+K4</f>
-        <v>222.83333333333337</v>
+      <c r="S4" s="5">
+        <f t="shared" ref="S4:S29" si="8">90-M4-(R4-M4)/2</f>
+        <v>63</v>
+      </c>
+      <c r="T4" s="5">
+        <f t="shared" ref="T4:T29" si="9">90+(R4-M4)/2</f>
+        <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="2">
+    <row r="5" spans="1:23">
+      <c r="A5" s="20">
         <v>11</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="12">
         <v>2.4</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="12">
         <v>0.83</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="16">
+        <f>G5-20</f>
+        <v>238.5</v>
+      </c>
+      <c r="E5" s="16">
+        <f>D5+Q5</f>
+        <v>246.33333333333334</v>
+      </c>
+      <c r="F5" s="15">
+        <f>G5*COS(15*PI()/180)</f>
+        <v>249.69182609572417</v>
+      </c>
+      <c r="G5" s="18">
         <f t="shared" si="0"/>
         <v>258.5</v>
       </c>
-      <c r="E5" s="11">
+      <c r="H5" s="16">
+        <f>G5+20</f>
+        <v>278.5</v>
+      </c>
+      <c r="I5" s="8">
         <f t="shared" si="1"/>
         <v>517</v>
       </c>
-      <c r="F5" s="11">
+      <c r="J5" s="8">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="G5" s="12">
+      <c r="K5" s="9">
         <f t="shared" si="3"/>
         <v>147.65485471872029</v>
       </c>
-      <c r="H5" s="10">
+      <c r="L5" s="9">
         <f t="shared" si="4"/>
         <v>73.827427359360144</v>
       </c>
-      <c r="I5" s="4">
+      <c r="M5" s="9">
         <f t="shared" si="5"/>
+        <v>16.363636363636363</v>
+      </c>
+      <c r="N5" s="7">
+        <f t="shared" si="6"/>
+        <v>73.63636363636364</v>
+      </c>
+      <c r="O5" s="17">
+        <f>B5*J5</f>
         <v>112.8</v>
       </c>
-      <c r="J5" s="4">
-        <f t="shared" si="6"/>
+      <c r="P5" s="17">
+        <f>C5*J5</f>
         <v>39.01</v>
       </c>
-      <c r="K5" s="6">
+      <c r="Q5" s="11">
         <f t="shared" si="7"/>
         <v>7.833333333333333</v>
       </c>
-      <c r="L5" s="14">
+      <c r="R5" s="11">
+        <f>K5/G5*180/PI()</f>
+        <v>32.727272727272727</v>
+      </c>
+      <c r="S5" s="5">
         <f t="shared" si="8"/>
-        <v>32.727272727272727</v>
-      </c>
-      <c r="M5" s="6">
+        <v>65.454545454545453</v>
+      </c>
+      <c r="T5" s="5">
         <f t="shared" si="9"/>
-        <v>66.13636363636364</v>
-      </c>
-      <c r="N5" s="6">
-        <f t="shared" si="10"/>
-        <v>98.86363636363636</v>
-      </c>
-      <c r="O5" s="6">
-        <f t="shared" si="11"/>
-        <v>238.5</v>
-      </c>
-      <c r="P5" s="6">
-        <f t="shared" si="12"/>
-        <v>278.5</v>
-      </c>
-      <c r="Q5" s="6">
-        <f t="shared" si="13"/>
-        <v>246.33333333333334</v>
+        <v>98.181818181818187</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="2">
+    <row r="6" spans="1:23">
+      <c r="A6" s="20">
         <v>12</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="12">
         <v>2.5099999999999998</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="12">
         <v>0.96</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="16">
+        <f>G6-20</f>
+        <v>262</v>
+      </c>
+      <c r="E6" s="16">
+        <f>D6+Q6</f>
+        <v>269.83333333333331</v>
+      </c>
+      <c r="F6" s="15">
+        <f>G6*COS(15*PI()/180)</f>
+        <v>272.39108301351729</v>
+      </c>
+      <c r="G6" s="18">
         <f t="shared" si="0"/>
         <v>282</v>
       </c>
-      <c r="E6" s="11">
+      <c r="H6" s="16">
+        <f>G6+20</f>
+        <v>302</v>
+      </c>
+      <c r="I6" s="8">
         <f t="shared" si="1"/>
         <v>564</v>
       </c>
-      <c r="F6" s="11">
+      <c r="J6" s="8">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="G6" s="12">
+      <c r="K6" s="9">
         <f t="shared" si="3"/>
         <v>147.65485471872029</v>
       </c>
-      <c r="H6" s="10">
+      <c r="L6" s="9">
         <f t="shared" si="4"/>
         <v>73.827427359360144</v>
       </c>
-      <c r="I6" s="4">
+      <c r="M6" s="9">
         <f t="shared" si="5"/>
+        <v>15.000000000000002</v>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="O6" s="17">
+        <f>B6*J6</f>
         <v>117.96999999999998</v>
       </c>
-      <c r="J6" s="4">
-        <f t="shared" si="6"/>
+      <c r="P6" s="17">
+        <f>C6*J6</f>
         <v>45.12</v>
       </c>
-      <c r="K6" s="6">
+      <c r="Q6" s="11">
         <f t="shared" si="7"/>
         <v>7.833333333333333</v>
       </c>
-      <c r="L6" s="14">
+      <c r="R6" s="11">
+        <f>K6/G6*180/PI()</f>
+        <v>30.000000000000004</v>
+      </c>
+      <c r="S6" s="5">
         <f t="shared" si="8"/>
-        <v>30.000000000000004</v>
-      </c>
-      <c r="M6" s="6">
+        <v>67.5</v>
+      </c>
+      <c r="T6" s="5">
         <f t="shared" si="9"/>
-        <v>67.5</v>
-      </c>
-      <c r="N6" s="6">
-        <f t="shared" si="10"/>
         <v>97.5</v>
       </c>
-      <c r="O6" s="6">
-        <f t="shared" si="11"/>
-        <v>262</v>
-      </c>
-      <c r="P6" s="6">
-        <f t="shared" si="12"/>
-        <v>302</v>
-      </c>
-      <c r="Q6" s="6">
-        <f t="shared" si="13"/>
-        <v>269.83333333333331</v>
-      </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:23">
       <c r="A7" s="2">
         <v>13</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="12">
         <v>2.62</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="12">
         <v>1.0900000000000001</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="16">
+        <f>G7-20</f>
+        <v>285.50000000000006</v>
+      </c>
+      <c r="E7" s="16">
+        <f>D7+Q7</f>
+        <v>293.33333333333337</v>
+      </c>
+      <c r="F7" s="15">
+        <f>G7*COS(15*PI()/180)</f>
+        <v>295.09033993131044</v>
+      </c>
+      <c r="G7" s="18">
         <f t="shared" si="0"/>
         <v>305.50000000000006</v>
       </c>
-      <c r="E7" s="11">
+      <c r="H7" s="16">
+        <f>G7+20</f>
+        <v>325.50000000000006</v>
+      </c>
+      <c r="I7" s="8">
         <f t="shared" si="1"/>
         <v>611.00000000000011</v>
       </c>
-      <c r="F7" s="11">
+      <c r="J7" s="8">
         <f t="shared" si="2"/>
         <v>47.000000000000007</v>
       </c>
-      <c r="G7" s="12">
+      <c r="K7" s="9">
         <f t="shared" si="3"/>
         <v>147.65485471872029</v>
       </c>
-      <c r="H7" s="10">
+      <c r="L7" s="9">
         <f t="shared" si="4"/>
         <v>73.827427359360144</v>
       </c>
-      <c r="I7" s="4">
+      <c r="M7" s="9">
         <f t="shared" si="5"/>
+        <v>13.846153846153845</v>
+      </c>
+      <c r="N7" s="7">
+        <f t="shared" si="6"/>
+        <v>76.15384615384616</v>
+      </c>
+      <c r="O7" s="17">
+        <f>B7*J7</f>
         <v>123.14000000000003</v>
       </c>
-      <c r="J7" s="4">
-        <f t="shared" si="6"/>
+      <c r="P7" s="17">
+        <f>C7*J7</f>
         <v>51.230000000000011</v>
       </c>
-      <c r="K7" s="6">
+      <c r="Q7" s="11">
         <f t="shared" si="7"/>
         <v>7.8333333333333348</v>
       </c>
-      <c r="L7" s="14">
+      <c r="R7" s="11">
+        <f>K7/G7*180/PI()</f>
+        <v>27.69230769230769</v>
+      </c>
+      <c r="S7" s="5">
         <f t="shared" si="8"/>
-        <v>27.69230769230769</v>
-      </c>
-      <c r="M7" s="6">
+        <v>69.230769230769241</v>
+      </c>
+      <c r="T7" s="5">
         <f t="shared" si="9"/>
-        <v>68.65384615384616</v>
-      </c>
-      <c r="N7" s="6">
-        <f t="shared" si="10"/>
-        <v>96.34615384615384</v>
-      </c>
-      <c r="O7" s="6">
-        <f t="shared" si="11"/>
-        <v>285.50000000000006</v>
-      </c>
-      <c r="P7" s="6">
-        <f t="shared" si="12"/>
-        <v>325.50000000000006</v>
-      </c>
-      <c r="Q7" s="6">
-        <f t="shared" si="13"/>
-        <v>293.33333333333337</v>
+        <v>96.92307692307692</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:23">
       <c r="A8" s="2">
         <v>14</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="12">
         <v>2.72</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="12">
         <v>1.22</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="16">
+        <f>G8-20</f>
+        <v>309</v>
+      </c>
+      <c r="E8" s="16">
+        <f>D8+Q8</f>
+        <v>316.83333333333331</v>
+      </c>
+      <c r="F8" s="15">
+        <f>G8*COS(15*PI()/180)</f>
+        <v>317.78959684910348</v>
+      </c>
+      <c r="G8" s="18">
         <f t="shared" si="0"/>
         <v>329</v>
       </c>
-      <c r="E8" s="11">
+      <c r="H8" s="16">
+        <f>G8+20</f>
+        <v>349</v>
+      </c>
+      <c r="I8" s="8">
         <f t="shared" si="1"/>
         <v>658</v>
       </c>
-      <c r="F8" s="11">
+      <c r="J8" s="8">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="G8" s="12">
+      <c r="K8" s="9">
         <f t="shared" si="3"/>
         <v>147.65485471872029</v>
       </c>
-      <c r="H8" s="10">
+      <c r="L8" s="9">
         <f t="shared" si="4"/>
         <v>73.827427359360144</v>
       </c>
-      <c r="I8" s="4">
+      <c r="M8" s="9">
         <f t="shared" si="5"/>
+        <v>12.857142857142859</v>
+      </c>
+      <c r="N8" s="7">
+        <f t="shared" si="6"/>
+        <v>77.142857142857139</v>
+      </c>
+      <c r="O8" s="17">
+        <f>B8*J8</f>
         <v>127.84</v>
       </c>
-      <c r="J8" s="4">
-        <f t="shared" si="6"/>
+      <c r="P8" s="17">
+        <f>C8*J8</f>
         <v>57.339999999999996</v>
       </c>
-      <c r="K8" s="6">
+      <c r="Q8" s="11">
         <f t="shared" si="7"/>
         <v>7.833333333333333</v>
       </c>
-      <c r="L8" s="14">
+      <c r="R8" s="11">
+        <f>K8/G8*180/PI()</f>
+        <v>25.714285714285719</v>
+      </c>
+      <c r="S8" s="5">
         <f t="shared" si="8"/>
-        <v>25.714285714285719</v>
-      </c>
-      <c r="M8" s="6">
+        <v>70.714285714285708</v>
+      </c>
+      <c r="T8" s="5">
         <f t="shared" si="9"/>
-        <v>69.642857142857139</v>
-      </c>
-      <c r="N8" s="6">
-        <f t="shared" si="10"/>
-        <v>95.357142857142861</v>
-      </c>
-      <c r="O8" s="6">
-        <f t="shared" si="11"/>
-        <v>309</v>
-      </c>
-      <c r="P8" s="6">
-        <f t="shared" si="12"/>
-        <v>349</v>
-      </c>
-      <c r="Q8" s="6">
-        <f t="shared" si="13"/>
-        <v>316.83333333333331</v>
+        <v>96.428571428571431</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:23">
       <c r="A9" s="2">
         <v>15</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="12">
         <v>2.82</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="12">
         <v>1.34</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="16">
+        <f>G9-20</f>
+        <v>332.5</v>
+      </c>
+      <c r="E9" s="16">
+        <f>D9+Q9</f>
+        <v>340.33333333333331</v>
+      </c>
+      <c r="F9" s="15">
+        <f>G9*COS(15*PI()/180)</f>
+        <v>340.48885376689657</v>
+      </c>
+      <c r="G9" s="18">
         <f t="shared" si="0"/>
         <v>352.5</v>
       </c>
-      <c r="E9" s="11">
+      <c r="H9" s="16">
+        <f>G9+20</f>
+        <v>372.5</v>
+      </c>
+      <c r="I9" s="8">
         <f t="shared" si="1"/>
         <v>705</v>
       </c>
-      <c r="F9" s="11">
+      <c r="J9" s="8">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="G9" s="12">
+      <c r="K9" s="9">
         <f t="shared" si="3"/>
         <v>147.65485471872029</v>
       </c>
-      <c r="H9" s="10">
+      <c r="L9" s="9">
         <f t="shared" si="4"/>
         <v>73.827427359360144</v>
       </c>
-      <c r="I9" s="4">
+      <c r="M9" s="9">
         <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="N9" s="7">
+        <f t="shared" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="O9" s="17">
+        <f>B9*J9</f>
         <v>132.54</v>
       </c>
-      <c r="J9" s="4">
-        <f t="shared" si="6"/>
+      <c r="P9" s="17">
+        <f>C9*J9</f>
         <v>62.980000000000004</v>
       </c>
-      <c r="K9" s="6">
+      <c r="Q9" s="11">
         <f t="shared" si="7"/>
         <v>7.833333333333333</v>
       </c>
-      <c r="L9" s="14">
+      <c r="R9" s="11">
+        <f>K9/G9*180/PI()</f>
+        <v>24</v>
+      </c>
+      <c r="S9" s="5">
         <f t="shared" si="8"/>
-        <v>24</v>
-      </c>
-      <c r="M9" s="6">
+        <v>72</v>
+      </c>
+      <c r="T9" s="5">
         <f t="shared" si="9"/>
-        <v>70.5</v>
-      </c>
-      <c r="N9" s="6">
-        <f t="shared" si="10"/>
-        <v>94.5</v>
-      </c>
-      <c r="O9" s="6">
-        <f t="shared" si="11"/>
-        <v>332.5</v>
-      </c>
-      <c r="P9" s="6">
-        <f t="shared" si="12"/>
-        <v>372.5</v>
-      </c>
-      <c r="Q9" s="6">
-        <f t="shared" si="13"/>
-        <v>340.33333333333331</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:23">
       <c r="A10" s="2">
         <v>16</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="12">
         <v>2.92</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="12">
         <v>1.46</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="16">
+        <f>G10-20</f>
+        <v>356</v>
+      </c>
+      <c r="E10" s="16">
+        <f>D10+Q10</f>
+        <v>363.83333333333331</v>
+      </c>
+      <c r="F10" s="15">
+        <f>G10*COS(15*PI()/180)</f>
+        <v>363.18811068468966</v>
+      </c>
+      <c r="G10" s="18">
         <f t="shared" si="0"/>
         <v>376</v>
       </c>
-      <c r="E10" s="11">
+      <c r="H10" s="16">
+        <f>G10+20</f>
+        <v>396</v>
+      </c>
+      <c r="I10" s="8">
         <f t="shared" si="1"/>
         <v>752</v>
       </c>
-      <c r="F10" s="11">
+      <c r="J10" s="8">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="G10" s="12">
+      <c r="K10" s="9">
         <f t="shared" si="3"/>
         <v>147.65485471872029</v>
       </c>
-      <c r="H10" s="10">
+      <c r="L10" s="9">
         <f t="shared" si="4"/>
         <v>73.827427359360144</v>
       </c>
-      <c r="I10" s="4">
+      <c r="M10" s="9">
         <f t="shared" si="5"/>
+        <v>11.250000000000002</v>
+      </c>
+      <c r="N10" s="7">
+        <f t="shared" si="6"/>
+        <v>78.75</v>
+      </c>
+      <c r="O10" s="17">
+        <f>B10*J10</f>
         <v>137.24</v>
       </c>
-      <c r="J10" s="4">
-        <f t="shared" si="6"/>
+      <c r="P10" s="17">
+        <f>C10*J10</f>
         <v>68.62</v>
       </c>
-      <c r="K10" s="6">
+      <c r="Q10" s="11">
         <f t="shared" si="7"/>
         <v>7.833333333333333</v>
       </c>
-      <c r="L10" s="14">
+      <c r="R10" s="11">
+        <f>K10/G10*180/PI()</f>
+        <v>22.500000000000004</v>
+      </c>
+      <c r="S10" s="5">
         <f t="shared" si="8"/>
-        <v>22.500000000000004</v>
-      </c>
-      <c r="M10" s="6">
+        <v>73.125</v>
+      </c>
+      <c r="T10" s="5">
         <f t="shared" si="9"/>
-        <v>71.25</v>
-      </c>
-      <c r="N10" s="6">
-        <f t="shared" si="10"/>
-        <v>93.75</v>
-      </c>
-      <c r="O10" s="6">
-        <f t="shared" si="11"/>
-        <v>356</v>
-      </c>
-      <c r="P10" s="6">
-        <f t="shared" si="12"/>
-        <v>396</v>
-      </c>
-      <c r="Q10" s="6">
-        <f t="shared" si="13"/>
-        <v>363.83333333333331</v>
+        <v>95.625</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:23">
       <c r="A11" s="2">
         <v>17</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="12">
         <v>3.02</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="12">
         <v>1.58</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="16">
+        <f>G11-20</f>
+        <v>379.50000000000006</v>
+      </c>
+      <c r="E11" s="16">
+        <f>D11+Q11</f>
+        <v>387.33333333333337</v>
+      </c>
+      <c r="F11" s="15">
+        <f>G11*COS(15*PI()/180)</f>
+        <v>385.88736760248287</v>
+      </c>
+      <c r="G11" s="18">
         <f t="shared" si="0"/>
         <v>399.50000000000006</v>
       </c>
-      <c r="E11" s="11">
+      <c r="H11" s="16">
+        <f>G11+20</f>
+        <v>419.50000000000006</v>
+      </c>
+      <c r="I11" s="8">
         <f t="shared" si="1"/>
         <v>799.00000000000011</v>
       </c>
-      <c r="F11" s="11">
+      <c r="J11" s="8">
         <f t="shared" si="2"/>
         <v>47.000000000000007</v>
       </c>
-      <c r="G11" s="12">
+      <c r="K11" s="9">
         <f t="shared" si="3"/>
         <v>147.65485471872029</v>
       </c>
-      <c r="H11" s="10">
+      <c r="L11" s="9">
         <f t="shared" si="4"/>
         <v>73.827427359360144</v>
       </c>
-      <c r="I11" s="4">
+      <c r="M11" s="9">
         <f t="shared" si="5"/>
+        <v>10.588235294117647</v>
+      </c>
+      <c r="N11" s="7">
+        <f t="shared" si="6"/>
+        <v>79.411764705882348</v>
+      </c>
+      <c r="O11" s="17">
+        <f>B11*J11</f>
         <v>141.94000000000003</v>
       </c>
-      <c r="J11" s="4">
-        <f t="shared" si="6"/>
+      <c r="P11" s="17">
+        <f>C11*J11</f>
         <v>74.260000000000019</v>
       </c>
-      <c r="K11" s="6">
+      <c r="Q11" s="11">
         <f t="shared" si="7"/>
         <v>7.8333333333333348</v>
       </c>
-      <c r="L11" s="14">
+      <c r="R11" s="11">
+        <f>K11/G11*180/PI()</f>
+        <v>21.176470588235293</v>
+      </c>
+      <c r="S11" s="5">
         <f t="shared" si="8"/>
-        <v>21.176470588235293</v>
-      </c>
-      <c r="M11" s="6">
+        <v>74.117647058823522</v>
+      </c>
+      <c r="T11" s="5">
         <f t="shared" si="9"/>
-        <v>71.911764705882348</v>
-      </c>
-      <c r="N11" s="6">
-        <f t="shared" si="10"/>
-        <v>93.088235294117652</v>
-      </c>
-      <c r="O11" s="6">
-        <f t="shared" si="11"/>
-        <v>379.50000000000006</v>
-      </c>
-      <c r="P11" s="6">
-        <f t="shared" si="12"/>
-        <v>419.50000000000006</v>
-      </c>
-      <c r="Q11" s="6">
-        <f t="shared" si="13"/>
-        <v>387.33333333333337</v>
+        <v>95.294117647058826</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:23">
       <c r="A12" s="2">
         <v>18</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="12">
         <v>3.12</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="12">
         <v>1.69</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="16">
+        <f>G12-20</f>
+        <v>403.00000000000006</v>
+      </c>
+      <c r="E12" s="16">
+        <f>D12+Q12</f>
+        <v>410.83333333333337</v>
+      </c>
+      <c r="F12" s="15">
+        <f>G12*COS(15*PI()/180)</f>
+        <v>408.58662452027596</v>
+      </c>
+      <c r="G12" s="18">
         <f t="shared" si="0"/>
         <v>423.00000000000006</v>
       </c>
-      <c r="E12" s="11">
+      <c r="H12" s="16">
+        <f>G12+20</f>
+        <v>443.00000000000006</v>
+      </c>
+      <c r="I12" s="8">
         <f t="shared" si="1"/>
         <v>846.00000000000011</v>
       </c>
-      <c r="F12" s="11">
+      <c r="J12" s="8">
         <f t="shared" si="2"/>
         <v>47.000000000000007</v>
       </c>
-      <c r="G12" s="12">
+      <c r="K12" s="9">
         <f t="shared" si="3"/>
         <v>147.65485471872029</v>
       </c>
-      <c r="H12" s="10">
+      <c r="L12" s="9">
         <f t="shared" si="4"/>
         <v>73.827427359360144</v>
       </c>
-      <c r="I12" s="4">
+      <c r="M12" s="9">
         <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N12" s="7">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="O12" s="17">
+        <f>B12*J12</f>
         <v>146.64000000000001</v>
       </c>
-      <c r="J12" s="4">
-        <f t="shared" si="6"/>
+      <c r="P12" s="17">
+        <f>C12*J12</f>
         <v>79.430000000000007</v>
       </c>
-      <c r="K12" s="6">
+      <c r="Q12" s="11">
         <f t="shared" si="7"/>
         <v>7.8333333333333348</v>
       </c>
-      <c r="L12" s="14">
+      <c r="R12" s="11">
+        <f>K12/G12*180/PI()</f>
+        <v>20</v>
+      </c>
+      <c r="S12" s="5">
         <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="M12" s="6">
+        <v>75</v>
+      </c>
+      <c r="T12" s="5">
         <f t="shared" si="9"/>
-        <v>72.5</v>
-      </c>
-      <c r="N12" s="6">
-        <f t="shared" si="10"/>
-        <v>92.5</v>
-      </c>
-      <c r="O12" s="6">
-        <f t="shared" si="11"/>
-        <v>403.00000000000006</v>
-      </c>
-      <c r="P12" s="6">
-        <f t="shared" si="12"/>
-        <v>443.00000000000006</v>
-      </c>
-      <c r="Q12" s="6">
-        <f t="shared" si="13"/>
-        <v>410.83333333333337</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:23">
       <c r="A13" s="2">
         <v>19</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="12">
         <v>3.22</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="12">
         <v>1.79</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="16">
+        <f>G13-20</f>
+        <v>426.50000000000006</v>
+      </c>
+      <c r="E13" s="16">
+        <f>D13+Q13</f>
+        <v>434.33333333333337</v>
+      </c>
+      <c r="F13" s="15">
+        <f>G13*COS(15*PI()/180)</f>
+        <v>431.28588143806905</v>
+      </c>
+      <c r="G13" s="18">
         <f t="shared" si="0"/>
         <v>446.50000000000006</v>
       </c>
-      <c r="E13" s="11">
+      <c r="H13" s="16">
+        <f>G13+20</f>
+        <v>466.50000000000006</v>
+      </c>
+      <c r="I13" s="8">
         <f t="shared" si="1"/>
         <v>893.00000000000011</v>
       </c>
-      <c r="F13" s="11">
+      <c r="J13" s="8">
         <f t="shared" si="2"/>
         <v>47.000000000000007</v>
       </c>
-      <c r="G13" s="12">
+      <c r="K13" s="9">
         <f t="shared" si="3"/>
         <v>147.65485471872029</v>
       </c>
-      <c r="H13" s="10">
+      <c r="L13" s="9">
         <f t="shared" si="4"/>
         <v>73.827427359360144</v>
       </c>
-      <c r="I13" s="4">
+      <c r="M13" s="9">
         <f t="shared" si="5"/>
+        <v>9.473684210526315</v>
+      </c>
+      <c r="N13" s="7">
+        <f t="shared" si="6"/>
+        <v>80.526315789473685</v>
+      </c>
+      <c r="O13" s="17">
+        <f>B13*J13</f>
         <v>151.34000000000003</v>
       </c>
-      <c r="J13" s="4">
-        <f t="shared" si="6"/>
+      <c r="P13" s="17">
+        <f>C13*J13</f>
         <v>84.13000000000001</v>
       </c>
-      <c r="K13" s="6">
+      <c r="Q13" s="11">
         <f t="shared" si="7"/>
         <v>7.8333333333333348</v>
       </c>
-      <c r="L13" s="14">
+      <c r="R13" s="11">
+        <f>K13/G13*180/PI()</f>
+        <v>18.94736842105263</v>
+      </c>
+      <c r="S13" s="5">
         <f t="shared" si="8"/>
-        <v>18.94736842105263</v>
-      </c>
-      <c r="M13" s="6">
+        <v>75.78947368421052</v>
+      </c>
+      <c r="T13" s="5">
         <f t="shared" si="9"/>
-        <v>73.026315789473685</v>
-      </c>
-      <c r="N13" s="6">
-        <f t="shared" si="10"/>
-        <v>91.973684210526315</v>
-      </c>
-      <c r="O13" s="6">
-        <f t="shared" si="11"/>
-        <v>426.50000000000006</v>
-      </c>
-      <c r="P13" s="6">
-        <f t="shared" si="12"/>
-        <v>466.50000000000006</v>
-      </c>
-      <c r="Q13" s="6">
-        <f t="shared" si="13"/>
-        <v>434.33333333333337</v>
+        <v>94.73684210526315</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="1" customFormat="1">
+    <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="3">
         <v>20</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="8">
         <v>3.32</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="8">
         <v>1.89</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="16">
+        <f>G14-20</f>
+        <v>450</v>
+      </c>
+      <c r="E14" s="16">
+        <f>D14+Q14</f>
+        <v>457.83333333333331</v>
+      </c>
+      <c r="F14" s="15">
+        <f>G14*COS(15*PI()/180)</f>
+        <v>453.98513835586209</v>
+      </c>
+      <c r="G14" s="19">
         <v>470</v>
       </c>
-      <c r="E14" s="11">
-        <f>2*D14</f>
+      <c r="H14" s="16">
+        <f>G14+20</f>
+        <v>490</v>
+      </c>
+      <c r="I14" s="8">
+        <f>2*G14</f>
         <v>940</v>
       </c>
-      <c r="F14" s="11">
-        <f>E14/A14</f>
+      <c r="J14" s="8">
+        <f>I14/A14</f>
         <v>47</v>
       </c>
-      <c r="G14" s="13">
-        <f>PI()*F14</f>
+      <c r="K14" s="10">
+        <f>PI()*J14</f>
         <v>147.65485471872029</v>
       </c>
-      <c r="H14" s="10">
-        <f>G14/2</f>
+      <c r="L14" s="9">
+        <f>K14/2</f>
         <v>73.827427359360144</v>
       </c>
-      <c r="I14" s="4">
-        <f>B14*F14</f>
+      <c r="M14" s="9">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="N14" s="7">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="O14" s="17">
+        <f>B14*J14</f>
         <v>156.04</v>
       </c>
-      <c r="J14" s="4">
-        <f>C14*F14</f>
+      <c r="P14" s="17">
+        <f>C14*J14</f>
         <v>88.83</v>
       </c>
-      <c r="K14" s="6">
+      <c r="Q14" s="11">
         <f t="shared" si="7"/>
         <v>7.833333333333333</v>
       </c>
-      <c r="L14" s="14">
+      <c r="R14" s="11">
+        <f>K14/G14*180/PI()</f>
+        <v>18</v>
+      </c>
+      <c r="S14" s="5">
         <f t="shared" si="8"/>
-        <v>18</v>
-      </c>
-      <c r="M14" s="6">
+        <v>76.5</v>
+      </c>
+      <c r="T14" s="5">
         <f t="shared" si="9"/>
-        <v>73.5</v>
-      </c>
-      <c r="N14" s="6">
-        <f t="shared" si="10"/>
-        <v>91.5</v>
-      </c>
-      <c r="O14" s="6">
-        <f t="shared" si="11"/>
-        <v>450</v>
-      </c>
-      <c r="P14" s="6">
-        <f t="shared" si="12"/>
-        <v>490</v>
-      </c>
-      <c r="Q14" s="6">
-        <f t="shared" si="13"/>
-        <v>457.83333333333331</v>
+        <v>94.5</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:23">
       <c r="A15" s="2">
         <v>21</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="12">
         <v>3.41</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="12">
         <v>1.98</v>
       </c>
-      <c r="D15" s="2">
-        <f t="shared" ref="D15:D29" si="14">A15*passo_referencia/(2*PI())</f>
+      <c r="D15" s="16">
+        <f>G15-20</f>
+        <v>473.5</v>
+      </c>
+      <c r="E15" s="16">
+        <f>D15+Q15</f>
+        <v>481.33333333333331</v>
+      </c>
+      <c r="F15" s="15">
+        <f>G15*COS(15*PI()/180)</f>
+        <v>476.68439527365518</v>
+      </c>
+      <c r="G15" s="18">
+        <f t="shared" ref="G15:G29" si="10">A15*passo_referencia/(2*PI())</f>
         <v>493.5</v>
       </c>
-      <c r="E15" s="11">
-        <f t="shared" ref="E15:E29" si="15">2*D15</f>
+      <c r="H15" s="16">
+        <f>G15+20</f>
+        <v>513.5</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" ref="I15:I29" si="11">2*G15</f>
         <v>987</v>
       </c>
-      <c r="F15" s="11">
-        <f t="shared" ref="F15:F29" si="16">E15/A15</f>
+      <c r="J15" s="8">
+        <f t="shared" ref="J15:J29" si="12">I15/A15</f>
         <v>47</v>
       </c>
-      <c r="G15" s="12">
-        <f t="shared" ref="G15:G29" si="17">PI()*F15</f>
+      <c r="K15" s="9">
+        <f t="shared" ref="K15:K29" si="13">PI()*J15</f>
         <v>147.65485471872029</v>
       </c>
-      <c r="H15" s="10">
-        <f t="shared" ref="H15:H29" si="18">G15/2</f>
+      <c r="L15" s="9">
+        <f t="shared" ref="L15:L29" si="14">K15/2</f>
         <v>73.827427359360144</v>
       </c>
-      <c r="I15" s="4">
-        <f t="shared" ref="I15:I29" si="19">B15*F15</f>
+      <c r="M15" s="9">
+        <f t="shared" si="5"/>
+        <v>8.5714285714285712</v>
+      </c>
+      <c r="N15" s="7">
+        <f t="shared" si="6"/>
+        <v>81.428571428571431</v>
+      </c>
+      <c r="O15" s="17">
+        <f>B15*J15</f>
         <v>160.27000000000001</v>
       </c>
-      <c r="J15" s="4">
-        <f t="shared" ref="J15:J29" si="20">C15*F15</f>
+      <c r="P15" s="17">
+        <f>C15*J15</f>
         <v>93.06</v>
       </c>
-      <c r="K15" s="6">
+      <c r="Q15" s="11">
         <f t="shared" si="7"/>
         <v>7.833333333333333</v>
       </c>
-      <c r="L15" s="14">
+      <c r="R15" s="11">
+        <f>K15/G15*180/PI()</f>
+        <v>17.142857142857142</v>
+      </c>
+      <c r="S15" s="5">
         <f t="shared" si="8"/>
-        <v>17.142857142857142</v>
-      </c>
-      <c r="M15" s="6">
+        <v>77.142857142857139</v>
+      </c>
+      <c r="T15" s="5">
         <f t="shared" si="9"/>
-        <v>73.928571428571431</v>
-      </c>
-      <c r="N15" s="6">
-        <f t="shared" si="10"/>
-        <v>91.071428571428569</v>
-      </c>
-      <c r="O15" s="6">
-        <f t="shared" si="11"/>
-        <v>473.5</v>
-      </c>
-      <c r="P15" s="6">
-        <f t="shared" si="12"/>
-        <v>513.5</v>
-      </c>
-      <c r="Q15" s="6">
-        <f t="shared" si="13"/>
-        <v>481.33333333333331</v>
+        <v>94.285714285714292</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:23">
       <c r="A16" s="2">
         <v>22</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="12">
         <v>3.49</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="12">
         <v>2.06</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="16">
+        <f>G16-20</f>
+        <v>497</v>
+      </c>
+      <c r="E16" s="16">
+        <f>D16+Q16</f>
+        <v>504.83333333333331</v>
+      </c>
+      <c r="F16" s="15">
+        <f>G16*COS(15*PI()/180)</f>
+        <v>499.38365219144833</v>
+      </c>
+      <c r="G16" s="18">
+        <f t="shared" si="10"/>
+        <v>517</v>
+      </c>
+      <c r="H16" s="16">
+        <f>G16+20</f>
+        <v>537</v>
+      </c>
+      <c r="I16" s="8">
+        <f t="shared" si="11"/>
+        <v>1034</v>
+      </c>
+      <c r="J16" s="8">
+        <f t="shared" si="12"/>
+        <v>47</v>
+      </c>
+      <c r="K16" s="9">
+        <f t="shared" si="13"/>
+        <v>147.65485471872029</v>
+      </c>
+      <c r="L16" s="9">
         <f t="shared" si="14"/>
-        <v>517</v>
-      </c>
-      <c r="E16" s="11">
-        <f t="shared" si="15"/>
-        <v>1034</v>
-      </c>
-      <c r="F16" s="11">
-        <f t="shared" si="16"/>
-        <v>47</v>
-      </c>
-      <c r="G16" s="12">
-        <f t="shared" si="17"/>
-        <v>147.65485471872029</v>
-      </c>
-      <c r="H16" s="10">
-        <f t="shared" si="18"/>
         <v>73.827427359360144</v>
       </c>
-      <c r="I16" s="4">
-        <f t="shared" si="19"/>
+      <c r="M16" s="9">
+        <f t="shared" si="5"/>
+        <v>8.1818181818181817</v>
+      </c>
+      <c r="N16" s="7">
+        <f t="shared" si="6"/>
+        <v>81.818181818181813</v>
+      </c>
+      <c r="O16" s="17">
+        <f>B16*J16</f>
         <v>164.03</v>
       </c>
-      <c r="J16" s="4">
-        <f t="shared" si="20"/>
+      <c r="P16" s="17">
+        <f>C16*J16</f>
         <v>96.820000000000007</v>
       </c>
-      <c r="K16" s="6">
+      <c r="Q16" s="11">
         <f t="shared" si="7"/>
         <v>7.833333333333333</v>
       </c>
-      <c r="L16" s="14">
+      <c r="R16" s="11">
+        <f>K16/G16*180/PI()</f>
+        <v>16.363636363636363</v>
+      </c>
+      <c r="S16" s="5">
         <f t="shared" si="8"/>
-        <v>16.363636363636363</v>
-      </c>
-      <c r="M16" s="6">
+        <v>77.72727272727272</v>
+      </c>
+      <c r="T16" s="5">
         <f t="shared" si="9"/>
-        <v>74.318181818181813</v>
-      </c>
-      <c r="N16" s="6">
-        <f t="shared" si="10"/>
-        <v>90.681818181818187</v>
-      </c>
-      <c r="O16" s="6">
-        <f t="shared" si="11"/>
-        <v>497</v>
-      </c>
-      <c r="P16" s="6">
-        <f t="shared" si="12"/>
-        <v>537</v>
-      </c>
-      <c r="Q16" s="6">
-        <f t="shared" si="13"/>
-        <v>504.83333333333331</v>
+        <v>94.090909090909093</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:20">
       <c r="A17" s="2">
         <v>23</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="12">
         <v>3.57</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="12">
         <v>2.15</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="16">
+        <f>G17-20</f>
+        <v>520.5</v>
+      </c>
+      <c r="E17" s="16">
+        <f>D17+Q17</f>
+        <v>528.33333333333337</v>
+      </c>
+      <c r="F17" s="15">
+        <f>G17*COS(15*PI()/180)</f>
+        <v>522.08290910924143</v>
+      </c>
+      <c r="G17" s="18">
+        <f t="shared" si="10"/>
+        <v>540.5</v>
+      </c>
+      <c r="H17" s="16">
+        <f>G17+20</f>
+        <v>560.5</v>
+      </c>
+      <c r="I17" s="8">
+        <f t="shared" si="11"/>
+        <v>1081</v>
+      </c>
+      <c r="J17" s="8">
+        <f t="shared" si="12"/>
+        <v>47</v>
+      </c>
+      <c r="K17" s="9">
+        <f t="shared" si="13"/>
+        <v>147.65485471872029</v>
+      </c>
+      <c r="L17" s="9">
         <f t="shared" si="14"/>
-        <v>540.5</v>
-      </c>
-      <c r="E17" s="11">
-        <f t="shared" si="15"/>
-        <v>1081</v>
-      </c>
-      <c r="F17" s="11">
-        <f t="shared" si="16"/>
-        <v>47</v>
-      </c>
-      <c r="G17" s="12">
-        <f t="shared" si="17"/>
-        <v>147.65485471872029</v>
-      </c>
-      <c r="H17" s="10">
-        <f t="shared" si="18"/>
         <v>73.827427359360144</v>
       </c>
-      <c r="I17" s="4">
-        <f t="shared" si="19"/>
+      <c r="M17" s="9">
+        <f t="shared" si="5"/>
+        <v>7.8260869565217384</v>
+      </c>
+      <c r="N17" s="7">
+        <f t="shared" si="6"/>
+        <v>82.173913043478265</v>
+      </c>
+      <c r="O17" s="17">
+        <f>B17*J17</f>
         <v>167.79</v>
       </c>
-      <c r="J17" s="4">
-        <f t="shared" si="20"/>
+      <c r="P17" s="17">
+        <f>C17*J17</f>
         <v>101.05</v>
       </c>
-      <c r="K17" s="6">
+      <c r="Q17" s="11">
         <f t="shared" si="7"/>
         <v>7.833333333333333</v>
       </c>
-      <c r="L17" s="14">
+      <c r="R17" s="11">
+        <f>K17/G17*180/PI()</f>
+        <v>15.652173913043477</v>
+      </c>
+      <c r="S17" s="5">
         <f t="shared" si="8"/>
-        <v>15.652173913043477</v>
-      </c>
-      <c r="M17" s="6">
+        <v>78.260869565217391</v>
+      </c>
+      <c r="T17" s="5">
         <f t="shared" si="9"/>
-        <v>74.673913043478265</v>
-      </c>
-      <c r="N17" s="6">
-        <f t="shared" si="10"/>
-        <v>90.326086956521735</v>
-      </c>
-      <c r="O17" s="6">
-        <f t="shared" si="11"/>
-        <v>520.5</v>
-      </c>
-      <c r="P17" s="6">
-        <f t="shared" si="12"/>
-        <v>560.5</v>
-      </c>
-      <c r="Q17" s="6">
-        <f t="shared" si="13"/>
-        <v>528.33333333333337</v>
+        <v>93.913043478260875</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:20">
       <c r="A18" s="2">
         <v>24</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="12">
         <v>3.64</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="12">
         <v>2.2400000000000002</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="16">
+        <f>G18-20</f>
+        <v>544</v>
+      </c>
+      <c r="E18" s="16">
+        <f>D18+Q18</f>
+        <v>551.83333333333337</v>
+      </c>
+      <c r="F18" s="15">
+        <f>G18*COS(15*PI()/180)</f>
+        <v>544.78216602703458</v>
+      </c>
+      <c r="G18" s="18">
+        <f t="shared" si="10"/>
+        <v>564</v>
+      </c>
+      <c r="H18" s="16">
+        <f>G18+20</f>
+        <v>584</v>
+      </c>
+      <c r="I18" s="8">
+        <f t="shared" si="11"/>
+        <v>1128</v>
+      </c>
+      <c r="J18" s="8">
+        <f t="shared" si="12"/>
+        <v>47</v>
+      </c>
+      <c r="K18" s="9">
+        <f t="shared" si="13"/>
+        <v>147.65485471872029</v>
+      </c>
+      <c r="L18" s="9">
         <f t="shared" si="14"/>
-        <v>564</v>
-      </c>
-      <c r="E18" s="11">
-        <f t="shared" si="15"/>
-        <v>1128</v>
-      </c>
-      <c r="F18" s="11">
-        <f t="shared" si="16"/>
-        <v>47</v>
-      </c>
-      <c r="G18" s="12">
-        <f t="shared" si="17"/>
-        <v>147.65485471872029</v>
-      </c>
-      <c r="H18" s="10">
-        <f t="shared" si="18"/>
         <v>73.827427359360144</v>
       </c>
-      <c r="I18" s="4">
-        <f t="shared" si="19"/>
+      <c r="M18" s="9">
+        <f t="shared" si="5"/>
+        <v>7.5000000000000009</v>
+      </c>
+      <c r="N18" s="7">
+        <f t="shared" si="6"/>
+        <v>82.5</v>
+      </c>
+      <c r="O18" s="17">
+        <f>B18*J18</f>
         <v>171.08</v>
       </c>
-      <c r="J18" s="4">
-        <f t="shared" si="20"/>
+      <c r="P18" s="17">
+        <f>C18*J18</f>
         <v>105.28000000000002</v>
       </c>
-      <c r="K18" s="6">
+      <c r="Q18" s="11">
         <f t="shared" si="7"/>
         <v>7.833333333333333</v>
       </c>
-      <c r="L18" s="14">
+      <c r="R18" s="11">
+        <f>K18/G18*180/PI()</f>
+        <v>15.000000000000002</v>
+      </c>
+      <c r="S18" s="5">
         <f t="shared" si="8"/>
-        <v>15.000000000000002</v>
-      </c>
-      <c r="M18" s="6">
+        <v>78.75</v>
+      </c>
+      <c r="T18" s="5">
         <f t="shared" si="9"/>
-        <v>75</v>
-      </c>
-      <c r="N18" s="6">
-        <f t="shared" si="10"/>
-        <v>90</v>
-      </c>
-      <c r="O18" s="6">
-        <f t="shared" si="11"/>
-        <v>544</v>
-      </c>
-      <c r="P18" s="6">
-        <f t="shared" si="12"/>
-        <v>584</v>
-      </c>
-      <c r="Q18" s="6">
-        <f t="shared" si="13"/>
-        <v>551.83333333333337</v>
+        <v>93.75</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:20">
       <c r="A19" s="2">
         <v>25</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="12">
         <v>3.71</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="12">
         <v>2.33</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="16">
+        <f>G19-20</f>
+        <v>567.5</v>
+      </c>
+      <c r="E19" s="16">
+        <f>D19+Q19</f>
+        <v>575.33333333333337</v>
+      </c>
+      <c r="F19" s="15">
+        <f>G19*COS(15*PI()/180)</f>
+        <v>567.48142294482761</v>
+      </c>
+      <c r="G19" s="18">
+        <f t="shared" si="10"/>
+        <v>587.5</v>
+      </c>
+      <c r="H19" s="16">
+        <f>G19+20</f>
+        <v>607.5</v>
+      </c>
+      <c r="I19" s="8">
+        <f t="shared" si="11"/>
+        <v>1175</v>
+      </c>
+      <c r="J19" s="8">
+        <f t="shared" si="12"/>
+        <v>47</v>
+      </c>
+      <c r="K19" s="9">
+        <f t="shared" si="13"/>
+        <v>147.65485471872029</v>
+      </c>
+      <c r="L19" s="9">
         <f t="shared" si="14"/>
-        <v>587.5</v>
-      </c>
-      <c r="E19" s="11">
-        <f t="shared" si="15"/>
-        <v>1175</v>
-      </c>
-      <c r="F19" s="11">
-        <f t="shared" si="16"/>
-        <v>47</v>
-      </c>
-      <c r="G19" s="12">
-        <f t="shared" si="17"/>
-        <v>147.65485471872029</v>
-      </c>
-      <c r="H19" s="10">
-        <f t="shared" si="18"/>
         <v>73.827427359360144</v>
       </c>
-      <c r="I19" s="4">
-        <f t="shared" si="19"/>
+      <c r="M19" s="9">
+        <f t="shared" si="5"/>
+        <v>7.2000000000000011</v>
+      </c>
+      <c r="N19" s="7">
+        <f t="shared" si="6"/>
+        <v>82.8</v>
+      </c>
+      <c r="O19" s="17">
+        <f>B19*J19</f>
         <v>174.37</v>
       </c>
-      <c r="J19" s="4">
-        <f t="shared" si="20"/>
+      <c r="P19" s="17">
+        <f>C19*J19</f>
         <v>109.51</v>
       </c>
-      <c r="K19" s="6">
+      <c r="Q19" s="11">
         <f t="shared" si="7"/>
         <v>7.833333333333333</v>
       </c>
-      <c r="L19" s="14">
+      <c r="R19" s="11">
+        <f>K19/G19*180/PI()</f>
+        <v>14.400000000000002</v>
+      </c>
+      <c r="S19" s="5">
         <f t="shared" si="8"/>
-        <v>14.400000000000002</v>
-      </c>
-      <c r="M19" s="6">
+        <v>79.2</v>
+      </c>
+      <c r="T19" s="5">
         <f t="shared" si="9"/>
-        <v>75.3</v>
-      </c>
-      <c r="N19" s="6">
-        <f t="shared" si="10"/>
-        <v>89.7</v>
-      </c>
-      <c r="O19" s="6">
-        <f t="shared" si="11"/>
-        <v>567.5</v>
-      </c>
-      <c r="P19" s="6">
-        <f t="shared" si="12"/>
-        <v>607.5</v>
-      </c>
-      <c r="Q19" s="6">
-        <f t="shared" si="13"/>
-        <v>575.33333333333337</v>
+        <v>93.6</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:20">
       <c r="A20" s="2">
         <v>26</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="12">
         <v>3.78</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="12">
         <v>2.42</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="16">
+        <f>G20-20</f>
+        <v>591.00000000000011</v>
+      </c>
+      <c r="E20" s="16">
+        <f>D20+Q20</f>
+        <v>598.83333333333348</v>
+      </c>
+      <c r="F20" s="15">
+        <f>G20*COS(15*PI()/180)</f>
+        <v>590.18067986262088</v>
+      </c>
+      <c r="G20" s="18">
+        <f t="shared" si="10"/>
+        <v>611.00000000000011</v>
+      </c>
+      <c r="H20" s="16">
+        <f>G20+20</f>
+        <v>631.00000000000011</v>
+      </c>
+      <c r="I20" s="8">
+        <f t="shared" si="11"/>
+        <v>1222.0000000000002</v>
+      </c>
+      <c r="J20" s="8">
+        <f t="shared" si="12"/>
+        <v>47.000000000000007</v>
+      </c>
+      <c r="K20" s="9">
+        <f t="shared" si="13"/>
+        <v>147.65485471872029</v>
+      </c>
+      <c r="L20" s="9">
         <f t="shared" si="14"/>
-        <v>611.00000000000011</v>
-      </c>
-      <c r="E20" s="11">
-        <f t="shared" si="15"/>
-        <v>1222.0000000000002</v>
-      </c>
-      <c r="F20" s="11">
-        <f t="shared" si="16"/>
-        <v>47.000000000000007</v>
-      </c>
-      <c r="G20" s="12">
-        <f t="shared" si="17"/>
-        <v>147.65485471872029</v>
-      </c>
-      <c r="H20" s="10">
-        <f t="shared" si="18"/>
         <v>73.827427359360144</v>
       </c>
-      <c r="I20" s="4">
-        <f t="shared" si="19"/>
+      <c r="M20" s="9">
+        <f t="shared" si="5"/>
+        <v>6.9230769230769225</v>
+      </c>
+      <c r="N20" s="7">
+        <f t="shared" si="6"/>
+        <v>83.07692307692308</v>
+      </c>
+      <c r="O20" s="17">
+        <f>B20*J20</f>
         <v>177.66000000000003</v>
       </c>
-      <c r="J20" s="4">
-        <f t="shared" si="20"/>
+      <c r="P20" s="17">
+        <f>C20*J20</f>
         <v>113.74000000000001</v>
       </c>
-      <c r="K20" s="6">
+      <c r="Q20" s="11">
         <f t="shared" si="7"/>
         <v>7.8333333333333348</v>
       </c>
-      <c r="L20" s="14">
+      <c r="R20" s="11">
+        <f>K20/G20*180/PI()</f>
+        <v>13.846153846153845</v>
+      </c>
+      <c r="S20" s="5">
         <f t="shared" si="8"/>
-        <v>13.846153846153845</v>
-      </c>
-      <c r="M20" s="6">
+        <v>79.615384615384613</v>
+      </c>
+      <c r="T20" s="5">
         <f t="shared" si="9"/>
-        <v>75.57692307692308</v>
-      </c>
-      <c r="N20" s="6">
-        <f t="shared" si="10"/>
-        <v>89.42307692307692</v>
-      </c>
-      <c r="O20" s="6">
-        <f t="shared" si="11"/>
-        <v>591.00000000000011</v>
-      </c>
-      <c r="P20" s="6">
-        <f t="shared" si="12"/>
-        <v>631.00000000000011</v>
-      </c>
-      <c r="Q20" s="6">
-        <f t="shared" si="13"/>
-        <v>598.83333333333348</v>
+        <v>93.461538461538467</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:20">
       <c r="A21" s="2">
         <v>27</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="12">
         <v>3.85</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="12">
         <v>2.33</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="16">
+        <f>G21-20</f>
+        <v>614.50000000000011</v>
+      </c>
+      <c r="E21" s="16">
+        <f>D21+Q21</f>
+        <v>622.33333333333348</v>
+      </c>
+      <c r="F21" s="15">
+        <f>G21*COS(15*PI()/180)</f>
+        <v>612.87993678041391</v>
+      </c>
+      <c r="G21" s="18">
+        <f t="shared" si="10"/>
+        <v>634.50000000000011</v>
+      </c>
+      <c r="H21" s="16">
+        <f>G21+20</f>
+        <v>654.50000000000011</v>
+      </c>
+      <c r="I21" s="8">
+        <f t="shared" si="11"/>
+        <v>1269.0000000000002</v>
+      </c>
+      <c r="J21" s="8">
+        <f t="shared" si="12"/>
+        <v>47.000000000000007</v>
+      </c>
+      <c r="K21" s="9">
+        <f t="shared" si="13"/>
+        <v>147.65485471872029</v>
+      </c>
+      <c r="L21" s="9">
         <f t="shared" si="14"/>
-        <v>634.50000000000011</v>
-      </c>
-      <c r="E21" s="11">
-        <f t="shared" si="15"/>
-        <v>1269.0000000000002</v>
-      </c>
-      <c r="F21" s="11">
-        <f t="shared" si="16"/>
-        <v>47.000000000000007</v>
-      </c>
-      <c r="G21" s="12">
-        <f t="shared" si="17"/>
-        <v>147.65485471872029</v>
-      </c>
-      <c r="H21" s="10">
-        <f t="shared" si="18"/>
         <v>73.827427359360144</v>
       </c>
-      <c r="I21" s="4">
-        <f t="shared" si="19"/>
+      <c r="M21" s="9">
+        <f t="shared" si="5"/>
+        <v>6.6666666666666661</v>
+      </c>
+      <c r="N21" s="7">
+        <f t="shared" si="6"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="O21" s="17">
+        <f>B21*J21</f>
         <v>180.95000000000005</v>
       </c>
-      <c r="J21" s="4">
-        <f t="shared" si="20"/>
+      <c r="P21" s="17">
+        <f>C21*J21</f>
         <v>109.51000000000002</v>
       </c>
-      <c r="K21" s="6">
+      <c r="Q21" s="11">
         <f t="shared" si="7"/>
         <v>7.8333333333333348</v>
       </c>
-      <c r="L21" s="14">
+      <c r="R21" s="11">
+        <f>K21/G21*180/PI()</f>
+        <v>13.333333333333332</v>
+      </c>
+      <c r="S21" s="5">
         <f t="shared" si="8"/>
-        <v>13.333333333333332</v>
-      </c>
-      <c r="M21" s="6">
+        <v>80</v>
+      </c>
+      <c r="T21" s="5">
         <f t="shared" si="9"/>
-        <v>75.833333333333329</v>
-      </c>
-      <c r="N21" s="6">
-        <f t="shared" si="10"/>
-        <v>89.166666666666671</v>
-      </c>
-      <c r="O21" s="6">
-        <f t="shared" si="11"/>
-        <v>614.50000000000011</v>
-      </c>
-      <c r="P21" s="6">
-        <f t="shared" si="12"/>
-        <v>654.50000000000011</v>
-      </c>
-      <c r="Q21" s="6">
-        <f t="shared" si="13"/>
-        <v>622.33333333333348</v>
+        <v>93.333333333333329</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:20">
       <c r="A22" s="2">
         <v>28</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="12">
         <v>3.92</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="12">
         <v>2.42</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="16">
+        <f>G22-20</f>
+        <v>638</v>
+      </c>
+      <c r="E22" s="16">
+        <f>D22+Q22</f>
+        <v>645.83333333333337</v>
+      </c>
+      <c r="F22" s="15">
+        <f>G22*COS(15*PI()/180)</f>
+        <v>635.57919369820695</v>
+      </c>
+      <c r="G22" s="18">
+        <f t="shared" si="10"/>
+        <v>658</v>
+      </c>
+      <c r="H22" s="16">
+        <f>G22+20</f>
+        <v>678</v>
+      </c>
+      <c r="I22" s="8">
+        <f t="shared" si="11"/>
+        <v>1316</v>
+      </c>
+      <c r="J22" s="8">
+        <f t="shared" si="12"/>
+        <v>47</v>
+      </c>
+      <c r="K22" s="9">
+        <f t="shared" si="13"/>
+        <v>147.65485471872029</v>
+      </c>
+      <c r="L22" s="9">
         <f t="shared" si="14"/>
-        <v>658</v>
-      </c>
-      <c r="E22" s="11">
-        <f t="shared" si="15"/>
-        <v>1316</v>
-      </c>
-      <c r="F22" s="11">
-        <f t="shared" si="16"/>
-        <v>47</v>
-      </c>
-      <c r="G22" s="12">
-        <f t="shared" si="17"/>
-        <v>147.65485471872029</v>
-      </c>
-      <c r="H22" s="10">
-        <f t="shared" si="18"/>
         <v>73.827427359360144</v>
       </c>
-      <c r="I22" s="4">
-        <f t="shared" si="19"/>
+      <c r="M22" s="9">
+        <f t="shared" si="5"/>
+        <v>6.4285714285714297</v>
+      </c>
+      <c r="N22" s="7">
+        <f t="shared" si="6"/>
+        <v>83.571428571428569</v>
+      </c>
+      <c r="O22" s="17">
+        <f>B22*J22</f>
         <v>184.24</v>
       </c>
-      <c r="J22" s="4">
-        <f t="shared" si="20"/>
+      <c r="P22" s="17">
+        <f>C22*J22</f>
         <v>113.74</v>
       </c>
-      <c r="K22" s="6">
+      <c r="Q22" s="11">
         <f t="shared" si="7"/>
         <v>7.833333333333333</v>
       </c>
-      <c r="L22" s="14">
+      <c r="R22" s="11">
+        <f>K22/G22*180/PI()</f>
+        <v>12.857142857142859</v>
+      </c>
+      <c r="S22" s="5">
         <f t="shared" si="8"/>
-        <v>12.857142857142859</v>
-      </c>
-      <c r="M22" s="6">
+        <v>80.357142857142861</v>
+      </c>
+      <c r="T22" s="5">
         <f t="shared" si="9"/>
-        <v>76.071428571428569</v>
-      </c>
-      <c r="N22" s="6">
-        <f t="shared" si="10"/>
-        <v>88.928571428571431</v>
-      </c>
-      <c r="O22" s="6">
-        <f t="shared" si="11"/>
-        <v>638</v>
-      </c>
-      <c r="P22" s="6">
-        <f t="shared" si="12"/>
-        <v>678</v>
-      </c>
-      <c r="Q22" s="6">
-        <f t="shared" si="13"/>
-        <v>645.83333333333337</v>
+        <v>93.214285714285708</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:20">
       <c r="A23" s="2">
         <v>29</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="12">
         <v>3.99</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="12">
         <v>2.5</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="16">
+        <f>G23-20</f>
+        <v>661.5</v>
+      </c>
+      <c r="E23" s="16">
+        <f>D23+Q23</f>
+        <v>669.33333333333337</v>
+      </c>
+      <c r="F23" s="15">
+        <f>G23*COS(15*PI()/180)</f>
+        <v>658.2784506160001</v>
+      </c>
+      <c r="G23" s="18">
+        <f t="shared" si="10"/>
+        <v>681.5</v>
+      </c>
+      <c r="H23" s="16">
+        <f>G23+20</f>
+        <v>701.5</v>
+      </c>
+      <c r="I23" s="8">
+        <f t="shared" si="11"/>
+        <v>1363</v>
+      </c>
+      <c r="J23" s="8">
+        <f t="shared" si="12"/>
+        <v>47</v>
+      </c>
+      <c r="K23" s="9">
+        <f t="shared" si="13"/>
+        <v>147.65485471872029</v>
+      </c>
+      <c r="L23" s="9">
         <f t="shared" si="14"/>
-        <v>681.5</v>
-      </c>
-      <c r="E23" s="11">
-        <f t="shared" si="15"/>
-        <v>1363</v>
-      </c>
-      <c r="F23" s="11">
-        <f t="shared" si="16"/>
-        <v>47</v>
-      </c>
-      <c r="G23" s="12">
-        <f t="shared" si="17"/>
-        <v>147.65485471872029</v>
-      </c>
-      <c r="H23" s="10">
-        <f t="shared" si="18"/>
         <v>73.827427359360144</v>
       </c>
-      <c r="I23" s="4">
-        <f t="shared" si="19"/>
+      <c r="M23" s="9">
+        <f t="shared" si="5"/>
+        <v>6.2068965517241379</v>
+      </c>
+      <c r="N23" s="7">
+        <f t="shared" si="6"/>
+        <v>83.793103448275858</v>
+      </c>
+      <c r="O23" s="17">
+        <f>B23*J23</f>
         <v>187.53</v>
       </c>
-      <c r="J23" s="4">
-        <f t="shared" si="20"/>
+      <c r="P23" s="17">
+        <f>C23*J23</f>
         <v>117.5</v>
       </c>
-      <c r="K23" s="6">
+      <c r="Q23" s="11">
         <f t="shared" si="7"/>
         <v>7.833333333333333</v>
       </c>
-      <c r="L23" s="14">
+      <c r="R23" s="11">
+        <f>K23/G23*180/PI()</f>
+        <v>12.413793103448276</v>
+      </c>
+      <c r="S23" s="5">
         <f t="shared" si="8"/>
-        <v>12.413793103448276</v>
-      </c>
-      <c r="M23" s="6">
+        <v>80.689655172413794</v>
+      </c>
+      <c r="T23" s="5">
         <f t="shared" si="9"/>
-        <v>76.293103448275858</v>
-      </c>
-      <c r="N23" s="6">
-        <f t="shared" si="10"/>
-        <v>88.706896551724142</v>
-      </c>
-      <c r="O23" s="6">
-        <f t="shared" si="11"/>
-        <v>661.5</v>
-      </c>
-      <c r="P23" s="6">
-        <f t="shared" si="12"/>
-        <v>701.5</v>
-      </c>
-      <c r="Q23" s="6">
-        <f t="shared" si="13"/>
-        <v>669.33333333333337</v>
+        <v>93.103448275862064</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:20">
       <c r="A24" s="2">
         <v>30</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="12">
         <v>4.0599999999999996</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="12">
         <v>2.59</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="16">
+        <f>G24-20</f>
+        <v>685</v>
+      </c>
+      <c r="E24" s="16">
+        <f>D24+Q24</f>
+        <v>692.83333333333337</v>
+      </c>
+      <c r="F24" s="15">
+        <f>G24*COS(15*PI()/180)</f>
+        <v>680.97770753379314</v>
+      </c>
+      <c r="G24" s="18">
+        <f t="shared" si="10"/>
+        <v>705</v>
+      </c>
+      <c r="H24" s="16">
+        <f>G24+20</f>
+        <v>725</v>
+      </c>
+      <c r="I24" s="8">
+        <f t="shared" si="11"/>
+        <v>1410</v>
+      </c>
+      <c r="J24" s="8">
+        <f t="shared" si="12"/>
+        <v>47</v>
+      </c>
+      <c r="K24" s="9">
+        <f t="shared" si="13"/>
+        <v>147.65485471872029</v>
+      </c>
+      <c r="L24" s="9">
         <f t="shared" si="14"/>
-        <v>705</v>
-      </c>
-      <c r="E24" s="11">
-        <f t="shared" si="15"/>
-        <v>1410</v>
-      </c>
-      <c r="F24" s="11">
-        <f t="shared" si="16"/>
-        <v>47</v>
-      </c>
-      <c r="G24" s="12">
-        <f t="shared" si="17"/>
-        <v>147.65485471872029</v>
-      </c>
-      <c r="H24" s="10">
-        <f t="shared" si="18"/>
         <v>73.827427359360144</v>
       </c>
-      <c r="I24" s="4">
-        <f t="shared" si="19"/>
+      <c r="M24" s="9">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N24" s="7">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="O24" s="17">
+        <f>B24*J24</f>
         <v>190.82</v>
       </c>
-      <c r="J24" s="4">
-        <f t="shared" si="20"/>
+      <c r="P24" s="17">
+        <f>C24*J24</f>
         <v>121.72999999999999</v>
       </c>
-      <c r="K24" s="6">
+      <c r="Q24" s="11">
         <f t="shared" si="7"/>
         <v>7.833333333333333</v>
       </c>
-      <c r="L24" s="14">
+      <c r="R24" s="11">
+        <f>K24/G24*180/PI()</f>
+        <v>12</v>
+      </c>
+      <c r="S24" s="5">
         <f t="shared" si="8"/>
-        <v>12</v>
-      </c>
-      <c r="M24" s="6">
+        <v>81</v>
+      </c>
+      <c r="T24" s="5">
         <f t="shared" si="9"/>
-        <v>76.5</v>
-      </c>
-      <c r="N24" s="6">
-        <f t="shared" si="10"/>
-        <v>88.5</v>
-      </c>
-      <c r="O24" s="6">
-        <f t="shared" si="11"/>
-        <v>685</v>
-      </c>
-      <c r="P24" s="6">
-        <f t="shared" si="12"/>
-        <v>725</v>
-      </c>
-      <c r="Q24" s="6">
-        <f t="shared" si="13"/>
-        <v>692.83333333333337</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:20">
       <c r="A25" s="2">
         <v>32</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="12">
         <v>4.2</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="12">
         <v>2.67</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="16">
+        <f>G25-20</f>
+        <v>732</v>
+      </c>
+      <c r="E25" s="16">
+        <f>D25+Q25</f>
+        <v>739.83333333333337</v>
+      </c>
+      <c r="F25" s="15">
+        <f>G25*COS(15*PI()/180)</f>
+        <v>726.37622136937932</v>
+      </c>
+      <c r="G25" s="18">
+        <f t="shared" si="10"/>
+        <v>752</v>
+      </c>
+      <c r="H25" s="16">
+        <f>G25+20</f>
+        <v>772</v>
+      </c>
+      <c r="I25" s="8">
+        <f t="shared" si="11"/>
+        <v>1504</v>
+      </c>
+      <c r="J25" s="8">
+        <f t="shared" si="12"/>
+        <v>47</v>
+      </c>
+      <c r="K25" s="9">
+        <f t="shared" si="13"/>
+        <v>147.65485471872029</v>
+      </c>
+      <c r="L25" s="9">
         <f t="shared" si="14"/>
-        <v>752</v>
-      </c>
-      <c r="E25" s="11">
-        <f t="shared" si="15"/>
-        <v>1504</v>
-      </c>
-      <c r="F25" s="11">
-        <f t="shared" si="16"/>
-        <v>47</v>
-      </c>
-      <c r="G25" s="12">
-        <f t="shared" si="17"/>
-        <v>147.65485471872029</v>
-      </c>
-      <c r="H25" s="10">
-        <f t="shared" si="18"/>
         <v>73.827427359360144</v>
       </c>
-      <c r="I25" s="4">
-        <f t="shared" si="19"/>
+      <c r="M25" s="9">
+        <f t="shared" si="5"/>
+        <v>5.6250000000000009</v>
+      </c>
+      <c r="N25" s="7">
+        <f t="shared" si="6"/>
+        <v>84.375</v>
+      </c>
+      <c r="O25" s="17">
+        <f>B25*J25</f>
         <v>197.4</v>
       </c>
-      <c r="J25" s="4">
-        <f t="shared" si="20"/>
+      <c r="P25" s="17">
+        <f>C25*J25</f>
         <v>125.49</v>
       </c>
-      <c r="K25" s="6">
+      <c r="Q25" s="11">
         <f t="shared" si="7"/>
         <v>7.833333333333333</v>
       </c>
-      <c r="L25" s="14">
+      <c r="R25" s="11">
+        <f>K25/G25*180/PI()</f>
+        <v>11.250000000000002</v>
+      </c>
+      <c r="S25" s="5">
         <f t="shared" si="8"/>
-        <v>11.250000000000002</v>
-      </c>
-      <c r="M25" s="6">
+        <v>81.5625</v>
+      </c>
+      <c r="T25" s="5">
         <f t="shared" si="9"/>
-        <v>76.875</v>
-      </c>
-      <c r="N25" s="6">
-        <f t="shared" si="10"/>
-        <v>88.125</v>
-      </c>
-      <c r="O25" s="6">
-        <f t="shared" si="11"/>
-        <v>732</v>
-      </c>
-      <c r="P25" s="6">
-        <f t="shared" si="12"/>
-        <v>772</v>
-      </c>
-      <c r="Q25" s="6">
-        <f t="shared" si="13"/>
-        <v>739.83333333333337</v>
+        <v>92.8125</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:20">
       <c r="A26" s="2">
         <v>33</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="12">
         <v>4.2699999999999996</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="12">
         <v>2.76</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="16">
+        <f>G26-20</f>
+        <v>755.50000000000011</v>
+      </c>
+      <c r="E26" s="16">
+        <f>D26+Q26</f>
+        <v>763.33333333333348</v>
+      </c>
+      <c r="F26" s="15">
+        <f>G26*COS(15*PI()/180)</f>
+        <v>749.07547828717259</v>
+      </c>
+      <c r="G26" s="18">
+        <f t="shared" si="10"/>
+        <v>775.50000000000011</v>
+      </c>
+      <c r="H26" s="16">
+        <f>G26+20</f>
+        <v>795.50000000000011</v>
+      </c>
+      <c r="I26" s="8">
+        <f t="shared" si="11"/>
+        <v>1551.0000000000002</v>
+      </c>
+      <c r="J26" s="8">
+        <f t="shared" si="12"/>
+        <v>47.000000000000007</v>
+      </c>
+      <c r="K26" s="9">
+        <f t="shared" si="13"/>
+        <v>147.65485471872029</v>
+      </c>
+      <c r="L26" s="9">
         <f t="shared" si="14"/>
-        <v>775.50000000000011</v>
-      </c>
-      <c r="E26" s="11">
-        <f t="shared" si="15"/>
-        <v>1551.0000000000002</v>
-      </c>
-      <c r="F26" s="11">
-        <f t="shared" si="16"/>
-        <v>47.000000000000007</v>
-      </c>
-      <c r="G26" s="12">
-        <f t="shared" si="17"/>
-        <v>147.65485471872029</v>
-      </c>
-      <c r="H26" s="10">
-        <f t="shared" si="18"/>
         <v>73.827427359360144</v>
       </c>
-      <c r="I26" s="4">
-        <f t="shared" si="19"/>
+      <c r="M26" s="9">
+        <f t="shared" si="5"/>
+        <v>5.454545454545455</v>
+      </c>
+      <c r="N26" s="7">
+        <f t="shared" si="6"/>
+        <v>84.545454545454547</v>
+      </c>
+      <c r="O26" s="17">
+        <f>B26*J26</f>
         <v>200.69</v>
       </c>
-      <c r="J26" s="4">
-        <f t="shared" si="20"/>
+      <c r="P26" s="17">
+        <f>C26*J26</f>
         <v>129.72</v>
       </c>
-      <c r="K26" s="6">
+      <c r="Q26" s="11">
         <f t="shared" si="7"/>
         <v>7.8333333333333348</v>
       </c>
-      <c r="L26" s="14">
+      <c r="R26" s="11">
+        <f>K26/G26*180/PI()</f>
+        <v>10.90909090909091</v>
+      </c>
+      <c r="S26" s="5">
         <f t="shared" si="8"/>
-        <v>10.90909090909091</v>
-      </c>
-      <c r="M26" s="6">
+        <v>81.818181818181813</v>
+      </c>
+      <c r="T26" s="5">
         <f t="shared" si="9"/>
-        <v>77.045454545454547</v>
-      </c>
-      <c r="N26" s="6">
-        <f t="shared" si="10"/>
-        <v>87.954545454545453</v>
-      </c>
-      <c r="O26" s="6">
-        <f t="shared" si="11"/>
-        <v>755.50000000000011</v>
-      </c>
-      <c r="P26" s="6">
-        <f t="shared" si="12"/>
-        <v>795.50000000000011</v>
-      </c>
-      <c r="Q26" s="6">
-        <f t="shared" si="13"/>
-        <v>763.33333333333348</v>
+        <v>92.727272727272734</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:20">
       <c r="A27" s="2">
         <v>34</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="12">
         <v>4.33</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="12">
         <v>2.93</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="16">
+        <f>G27-20</f>
+        <v>779.00000000000011</v>
+      </c>
+      <c r="E27" s="16">
+        <f>D27+Q27</f>
+        <v>786.83333333333348</v>
+      </c>
+      <c r="F27" s="15">
+        <f>G27*COS(15*PI()/180)</f>
+        <v>771.77473520496574</v>
+      </c>
+      <c r="G27" s="18">
+        <f t="shared" si="10"/>
+        <v>799.00000000000011</v>
+      </c>
+      <c r="H27" s="16">
+        <f>G27+20</f>
+        <v>819.00000000000011</v>
+      </c>
+      <c r="I27" s="8">
+        <f t="shared" si="11"/>
+        <v>1598.0000000000002</v>
+      </c>
+      <c r="J27" s="8">
+        <f t="shared" si="12"/>
+        <v>47.000000000000007</v>
+      </c>
+      <c r="K27" s="9">
+        <f t="shared" si="13"/>
+        <v>147.65485471872029</v>
+      </c>
+      <c r="L27" s="9">
         <f t="shared" si="14"/>
-        <v>799.00000000000011</v>
-      </c>
-      <c r="E27" s="11">
-        <f t="shared" si="15"/>
-        <v>1598.0000000000002</v>
-      </c>
-      <c r="F27" s="11">
-        <f t="shared" si="16"/>
-        <v>47.000000000000007</v>
-      </c>
-      <c r="G27" s="12">
-        <f t="shared" si="17"/>
-        <v>147.65485471872029</v>
-      </c>
-      <c r="H27" s="10">
-        <f t="shared" si="18"/>
         <v>73.827427359360144</v>
       </c>
-      <c r="I27" s="4">
-        <f t="shared" si="19"/>
+      <c r="M27" s="9">
+        <f t="shared" si="5"/>
+        <v>5.2941176470588234</v>
+      </c>
+      <c r="N27" s="7">
+        <f t="shared" si="6"/>
+        <v>84.705882352941174</v>
+      </c>
+      <c r="O27" s="17">
+        <f>B27*J27</f>
         <v>203.51000000000005</v>
       </c>
-      <c r="J27" s="4">
-        <f t="shared" si="20"/>
+      <c r="P27" s="17">
+        <f>C27*J27</f>
         <v>137.71000000000004</v>
       </c>
-      <c r="K27" s="6">
+      <c r="Q27" s="11">
         <f t="shared" si="7"/>
         <v>7.8333333333333348</v>
       </c>
-      <c r="L27" s="14">
+      <c r="R27" s="11">
+        <f>K27/G27*180/PI()</f>
+        <v>10.588235294117647</v>
+      </c>
+      <c r="S27" s="5">
         <f t="shared" si="8"/>
-        <v>10.588235294117647</v>
-      </c>
-      <c r="M27" s="6">
+        <v>82.058823529411768</v>
+      </c>
+      <c r="T27" s="5">
         <f t="shared" si="9"/>
-        <v>77.205882352941174</v>
-      </c>
-      <c r="N27" s="6">
-        <f t="shared" si="10"/>
-        <v>87.794117647058826</v>
-      </c>
-      <c r="O27" s="6">
-        <f t="shared" si="11"/>
-        <v>779.00000000000011</v>
-      </c>
-      <c r="P27" s="6">
-        <f t="shared" si="12"/>
-        <v>819.00000000000011</v>
-      </c>
-      <c r="Q27" s="6">
-        <f t="shared" si="13"/>
-        <v>786.83333333333348</v>
+        <v>92.647058823529406</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:20">
       <c r="A28" s="2">
         <v>35</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="12">
         <v>4.3899999999999997</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="12">
         <v>3.01</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="16">
+        <f>G28-20</f>
+        <v>802.50000000000011</v>
+      </c>
+      <c r="E28" s="16">
+        <f>D28+Q28</f>
+        <v>810.33333333333348</v>
+      </c>
+      <c r="F28" s="15">
+        <f>G28*COS(15*PI()/180)</f>
+        <v>794.47399212275877</v>
+      </c>
+      <c r="G28" s="18">
+        <f t="shared" si="10"/>
+        <v>822.50000000000011</v>
+      </c>
+      <c r="H28" s="16">
+        <f>G28+20</f>
+        <v>842.50000000000011</v>
+      </c>
+      <c r="I28" s="8">
+        <f t="shared" si="11"/>
+        <v>1645.0000000000002</v>
+      </c>
+      <c r="J28" s="8">
+        <f t="shared" si="12"/>
+        <v>47.000000000000007</v>
+      </c>
+      <c r="K28" s="9">
+        <f t="shared" si="13"/>
+        <v>147.65485471872029</v>
+      </c>
+      <c r="L28" s="9">
         <f t="shared" si="14"/>
-        <v>822.50000000000011</v>
-      </c>
-      <c r="E28" s="11">
-        <f t="shared" si="15"/>
-        <v>1645.0000000000002</v>
-      </c>
-      <c r="F28" s="11">
-        <f t="shared" si="16"/>
-        <v>47.000000000000007</v>
-      </c>
-      <c r="G28" s="12">
-        <f t="shared" si="17"/>
-        <v>147.65485471872029</v>
-      </c>
-      <c r="H28" s="10">
-        <f t="shared" si="18"/>
         <v>73.827427359360144</v>
       </c>
-      <c r="I28" s="4">
-        <f t="shared" si="19"/>
+      <c r="M28" s="9">
+        <f t="shared" si="5"/>
+        <v>5.1428571428571432</v>
+      </c>
+      <c r="N28" s="7">
+        <f t="shared" si="6"/>
+        <v>84.857142857142861</v>
+      </c>
+      <c r="O28" s="17">
+        <f>B28*J28</f>
         <v>206.33</v>
       </c>
-      <c r="J28" s="4">
-        <f t="shared" si="20"/>
+      <c r="P28" s="17">
+        <f>C28*J28</f>
         <v>141.47</v>
       </c>
-      <c r="K28" s="6">
+      <c r="Q28" s="11">
         <f t="shared" si="7"/>
         <v>7.8333333333333348</v>
       </c>
-      <c r="L28" s="14">
+      <c r="R28" s="11">
+        <f>K28/G28*180/PI()</f>
+        <v>10.285714285714286</v>
+      </c>
+      <c r="S28" s="5">
         <f t="shared" si="8"/>
-        <v>10.285714285714286</v>
-      </c>
-      <c r="M28" s="6">
+        <v>82.285714285714292</v>
+      </c>
+      <c r="T28" s="5">
         <f t="shared" si="9"/>
-        <v>77.357142857142861</v>
-      </c>
-      <c r="N28" s="6">
+        <v>92.571428571428569</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="20">
+        <v>36</v>
+      </c>
+      <c r="B29" s="12">
+        <v>4.45</v>
+      </c>
+      <c r="C29" s="12">
+        <v>3.09</v>
+      </c>
+      <c r="D29" s="16">
+        <f>G29-20</f>
+        <v>826.00000000000011</v>
+      </c>
+      <c r="E29" s="16">
+        <f>D29+Q29</f>
+        <v>833.83333333333348</v>
+      </c>
+      <c r="F29" s="15">
+        <f>G29*COS(15*PI()/180)</f>
+        <v>817.17324904055192</v>
+      </c>
+      <c r="G29" s="18">
         <f t="shared" si="10"/>
-        <v>87.642857142857139</v>
-      </c>
-      <c r="O28" s="6">
+        <v>846.00000000000011</v>
+      </c>
+      <c r="H29" s="16">
+        <f>G29+20</f>
+        <v>866.00000000000011</v>
+      </c>
+      <c r="I29" s="8">
         <f t="shared" si="11"/>
-        <v>802.50000000000011</v>
-      </c>
-      <c r="P28" s="6">
+        <v>1692.0000000000002</v>
+      </c>
+      <c r="J29" s="8">
         <f t="shared" si="12"/>
-        <v>842.50000000000011</v>
-      </c>
-      <c r="Q28" s="6">
+        <v>47.000000000000007</v>
+      </c>
+      <c r="K29" s="9">
         <f t="shared" si="13"/>
-        <v>810.33333333333348</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="2">
-        <v>36</v>
-      </c>
-      <c r="B29" s="15">
-        <v>4.45</v>
-      </c>
-      <c r="C29" s="15">
-        <v>3.09</v>
-      </c>
-      <c r="D29" s="2">
+        <v>147.65485471872029</v>
+      </c>
+      <c r="L29" s="9">
         <f t="shared" si="14"/>
-        <v>846.00000000000011</v>
-      </c>
-      <c r="E29" s="11">
-        <f t="shared" si="15"/>
-        <v>1692.0000000000002</v>
-      </c>
-      <c r="F29" s="11">
-        <f t="shared" si="16"/>
-        <v>47.000000000000007</v>
-      </c>
-      <c r="G29" s="12">
-        <f t="shared" si="17"/>
-        <v>147.65485471872029</v>
-      </c>
-      <c r="H29" s="10">
-        <f t="shared" si="18"/>
         <v>73.827427359360144</v>
       </c>
-      <c r="I29" s="4">
-        <f t="shared" si="19"/>
+      <c r="M29" s="9">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N29" s="7">
+        <f t="shared" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="O29" s="17">
+        <f>B29*J29</f>
         <v>209.15000000000003</v>
       </c>
-      <c r="J29" s="4">
-        <f t="shared" si="20"/>
+      <c r="P29" s="17">
+        <f>C29*J29</f>
         <v>145.23000000000002</v>
       </c>
-      <c r="K29" s="6">
+      <c r="Q29" s="11">
         <f t="shared" si="7"/>
         <v>7.8333333333333348</v>
       </c>
-      <c r="L29" s="14">
+      <c r="R29" s="11">
+        <f>K29/G29*180/PI()</f>
+        <v>10</v>
+      </c>
+      <c r="S29" s="5">
         <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="M29" s="6">
+        <v>82.5</v>
+      </c>
+      <c r="T29" s="5">
         <f t="shared" si="9"/>
-        <v>77.5</v>
-      </c>
-      <c r="N29" s="6">
-        <f t="shared" si="10"/>
-        <v>87.5</v>
-      </c>
-      <c r="O29" s="6">
-        <f t="shared" si="11"/>
-        <v>826.00000000000011</v>
-      </c>
-      <c r="P29" s="6">
-        <f t="shared" si="12"/>
-        <v>866.00000000000011</v>
-      </c>
-      <c r="Q29" s="6">
-        <f t="shared" si="13"/>
-        <v>833.83333333333348</v>
+        <v>92.5</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
+    <row r="31" spans="1:20">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A31:P31"/>
+    <mergeCell ref="A1:W1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
